--- a/Ablag_Exports/Meldung_AB_FZ_20241014.xlsx
+++ b/Ablag_Exports/Meldung_AB_FZ_20241014.xlsx
@@ -1,24 +1,12 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BVB30103866\OneDrive - Basler Verkehrs-Betriebe\Desktop\Documents\github\Ablag_Exports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_8FD69D5EC4094ECA35217C07B8BF26C6298E5997" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0455C95A-3118-40C0-98A7-589CBC6DE0E3}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="1800" yWindow="0" windowWidth="21600" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21855" windowHeight="14940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$M$30</definedName>
-  </definedNames>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -250,7 +238,8 @@
     <t>FT-TB0301S-TB0322-06</t>
   </si>
   <si>
-    <t>Längslänker sind ausgeschlagen</t>
+    <t>Längslänker sind ausgeschlagen
+</t>
   </si>
   <si>
     <t>300128997</t>
@@ -373,17 +362,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -393,6 +388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,8 +428,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -434,349 +445,48 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+      <alignment wrapText="1" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:M30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="82" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" bestFit="1" width="16" customWidth="1"/>
+    <col min="2" max="2" bestFit="1" width="16" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="22" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="16" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="22" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="14" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="20" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="15" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="11" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="42" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="10" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="9" customWidth="1"/>
+    <col min="13" max="13" bestFit="1" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>102</v>
       </c>
@@ -817,73 +527,73 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2">
-        <v>45578</v>
+        <v>45117</v>
       </c>
       <c r="E2" s="3">
-        <v>0.33292824074074001</v>
+        <v>0.40043981481481</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H2" s="2">
-        <v>45578</v>
+        <v>45117</v>
       </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>101</v>
+        <v>4</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L2" t="s">
         <v>6</v>
       </c>
       <c r="M2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>45575</v>
+        <v>45355</v>
       </c>
       <c r="E3" s="3">
-        <v>0.46239583333333001</v>
+        <v>0.99998842592593</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H3" s="2">
-        <v>45575</v>
+        <v>45363</v>
       </c>
       <c r="I3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>11</v>
       </c>
       <c r="K3" t="s">
         <v>12</v>
@@ -895,37 +605,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>85</v>
+        <v>16</v>
       </c>
       <c r="D4" s="2">
-        <v>45574</v>
+        <v>45409</v>
       </c>
       <c r="E4" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.59510416666667</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H4" s="2">
-        <v>45574</v>
+        <v>45409</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="K4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L4" t="s">
         <v>6</v>
@@ -934,34 +644,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
-        <v>45574</v>
+        <v>45427</v>
       </c>
       <c r="E5" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.39796296296296</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H5" s="2">
-        <v>45574</v>
+        <v>45427</v>
       </c>
       <c r="I5" t="s">
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
         <v>5</v>
@@ -973,37 +683,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2">
-        <v>45574</v>
+        <v>45443</v>
       </c>
       <c r="E6" s="3">
-        <v>1.1574074069999999E-5</v>
+        <v>0.97452546296296</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H6" s="2">
-        <v>45574</v>
+        <v>45443</v>
       </c>
       <c r="I6" t="s">
         <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L6" t="s">
         <v>6</v>
@@ -1012,37 +722,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2">
-        <v>45574</v>
+        <v>45468</v>
       </c>
       <c r="E7" s="3">
-        <v>0.67749999999999999</v>
+        <v>0.99998842592593</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H7" s="2">
-        <v>45574</v>
+        <v>45495</v>
       </c>
       <c r="I7" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="K7" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L7" t="s">
         <v>6</v>
@@ -1051,34 +761,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2">
-        <v>45573</v>
+        <v>45526</v>
       </c>
       <c r="E8" s="3">
-        <v>0.63145833333333001</v>
+        <v>0.44587962962963</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H8" s="2">
-        <v>45573</v>
+        <v>45526</v>
       </c>
       <c r="I8" t="s">
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
       <c r="K8" t="s">
         <v>12</v>
@@ -1087,40 +797,40 @@
         <v>6</v>
       </c>
       <c r="M8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2">
-        <v>45572</v>
+        <v>45533</v>
       </c>
       <c r="E9" s="3">
-        <v>0.39583333333332998</v>
+        <v>0.67665509259259</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H9" s="2">
-        <v>45572</v>
+        <v>45533</v>
       </c>
       <c r="I9" t="s">
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="K9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L9" t="s">
         <v>6</v>
@@ -1129,37 +839,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>45572</v>
+        <v>45533</v>
       </c>
       <c r="E10" s="3">
-        <v>0.63324074074073999</v>
+        <v>0.68186342592593</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H10" s="2">
-        <v>45572</v>
+        <v>45533</v>
       </c>
       <c r="I10" t="s">
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="K10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L10" t="s">
         <v>6</v>
@@ -1168,34 +878,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D11" s="2">
-        <v>45566</v>
+        <v>45533</v>
       </c>
       <c r="E11" s="3">
-        <v>0.87996527777778</v>
+        <v>0.64305555555556</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H11" s="2">
-        <v>45566</v>
+        <v>45537</v>
       </c>
       <c r="I11" t="s">
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
         <v>12</v>
@@ -1204,37 +914,37 @@
         <v>6</v>
       </c>
       <c r="M11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>45553</v>
+        <v>45533</v>
       </c>
       <c r="E12" s="3">
-        <v>0.45783564814814998</v>
+        <v>0.65069444444444</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H12" s="2">
-        <v>45553</v>
+        <v>45537</v>
       </c>
       <c r="I12" t="s">
         <v>3</v>
       </c>
       <c r="J12" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K12" t="s">
         <v>12</v>
@@ -1246,34 +956,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="D13" s="2">
-        <v>45552</v>
+        <v>45534</v>
       </c>
       <c r="E13" s="3">
-        <v>0.51805555555556004</v>
+        <v>0.65833333333333</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H13" s="2">
-        <v>45552</v>
+        <v>45537</v>
       </c>
       <c r="I13" t="s">
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -1285,34 +995,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D14" s="2">
-        <v>45551</v>
+        <v>45539</v>
       </c>
       <c r="E14" s="3">
-        <v>0.55627314814814999</v>
+        <v>0.51046296296296</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H14" s="2">
-        <v>45551</v>
+        <v>45539</v>
       </c>
       <c r="I14" t="s">
         <v>3</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -1324,73 +1034,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D15" s="2">
-        <v>45541</v>
+        <v>45537</v>
       </c>
       <c r="E15" s="3">
-        <v>0.38618055555556002</v>
+        <v>0.64046296296296</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H15" s="2">
+        <v>45539</v>
+      </c>
+      <c r="I15" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" t="s">
+        <v>12</v>
+      </c>
+      <c r="L15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="2">
         <v>45541</v>
       </c>
-      <c r="I15" t="s">
-        <v>3</v>
-      </c>
-      <c r="J15" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" t="s">
-        <v>12</v>
-      </c>
-      <c r="L15" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="2">
-        <v>45539</v>
-      </c>
       <c r="E16" s="3">
-        <v>0.51046296296296001</v>
+        <v>0.38618055555556</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H16" s="2">
-        <v>45539</v>
+        <v>45541</v>
       </c>
       <c r="I16" t="s">
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="K16" t="s">
         <v>12</v>
@@ -1399,31 +1109,31 @@
         <v>6</v>
       </c>
       <c r="M16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D17" s="2">
         <v>45537</v>
       </c>
       <c r="E17" s="3">
-        <v>0.64046296296296001</v>
+        <v>0.57446759259259</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H17" s="2">
-        <v>45539</v>
+        <v>45544</v>
       </c>
       <c r="I17" t="s">
         <v>3</v>
@@ -1441,34 +1151,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D18" s="2">
-        <v>45537</v>
+        <v>45551</v>
       </c>
       <c r="E18" s="3">
-        <v>0.57446759259258995</v>
+        <v>0.55627314814815</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H18" s="2">
-        <v>45544</v>
+        <v>45551</v>
       </c>
       <c r="I18" t="s">
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="K18" t="s">
         <v>12</v>
@@ -1480,34 +1190,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>63</v>
       </c>
       <c r="D19" s="2">
-        <v>45534</v>
+        <v>45552</v>
       </c>
       <c r="E19" s="3">
-        <v>0.65833333333333</v>
+        <v>0.51805555555556</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H19" s="2">
-        <v>45537</v>
+        <v>45552</v>
       </c>
       <c r="I19" t="s">
         <v>3</v>
       </c>
       <c r="J19" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="K19" t="s">
         <v>12</v>
@@ -1519,28 +1229,28 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D20" s="2">
-        <v>45533</v>
+        <v>45553</v>
       </c>
       <c r="E20" s="3">
-        <v>0.67665509259259005</v>
+        <v>0.45783564814815</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H20" s="2">
-        <v>45533</v>
+        <v>45553</v>
       </c>
       <c r="I20" t="s">
         <v>3</v>
@@ -1549,7 +1259,7 @@
         <v>34</v>
       </c>
       <c r="K20" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L20" t="s">
         <v>6</v>
@@ -1558,73 +1268,73 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>69</v>
       </c>
       <c r="D21" s="2">
-        <v>45533</v>
+        <v>45566</v>
       </c>
       <c r="E21" s="3">
-        <v>0.68186342592592997</v>
+        <v>0.87996527777778</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H21" s="2">
-        <v>45533</v>
+        <v>45566</v>
       </c>
       <c r="I21" t="s">
         <v>3</v>
       </c>
       <c r="J21" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="K21" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L21" t="s">
         <v>6</v>
       </c>
       <c r="M21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D22" s="2">
-        <v>45533</v>
+        <v>45572</v>
       </c>
       <c r="E22" s="3">
-        <v>0.64305555555556004</v>
+        <v>0.39583333333333</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H22" s="2">
-        <v>45537</v>
+        <v>45572</v>
       </c>
       <c r="I22" t="s">
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="K22" t="s">
         <v>12</v>
@@ -1636,34 +1346,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C23" t="s">
         <v>41</v>
       </c>
       <c r="D23" s="2">
-        <v>45533</v>
+        <v>45572</v>
       </c>
       <c r="E23" s="3">
-        <v>0.65069444444444002</v>
+        <v>0.63324074074074</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H23" s="2">
-        <v>45537</v>
+        <v>45572</v>
       </c>
       <c r="I23" t="s">
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
@@ -1675,34 +1385,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="D24" s="2">
-        <v>45526</v>
+        <v>45573</v>
       </c>
       <c r="E24" s="3">
-        <v>0.44587962962963001</v>
+        <v>0.63145833333333</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H24" s="2">
-        <v>45526</v>
+        <v>45573</v>
       </c>
       <c r="I24" t="s">
         <v>3</v>
       </c>
       <c r="J24" t="s">
-        <v>30</v>
+        <v>82</v>
       </c>
       <c r="K24" t="s">
         <v>12</v>
@@ -1711,34 +1421,34 @@
         <v>6</v>
       </c>
       <c r="M24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>85</v>
       </c>
       <c r="D25" s="2">
-        <v>45468</v>
+        <v>45574</v>
       </c>
       <c r="E25" s="3">
-        <v>0.99998842592592996</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H25" s="2">
-        <v>45495</v>
+        <v>45574</v>
       </c>
       <c r="I25" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1753,37 +1463,37 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>87</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="D26" s="2">
-        <v>45443</v>
+        <v>45574</v>
       </c>
       <c r="E26" s="3">
-        <v>0.97452546296296005</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H26" s="2">
-        <v>45443</v>
+        <v>45574</v>
       </c>
       <c r="I26" t="s">
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="K26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="L26" t="s">
         <v>6</v>
@@ -1792,34 +1502,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D27" s="2">
-        <v>45427</v>
+        <v>45574</v>
       </c>
       <c r="E27" s="3">
-        <v>0.39796296296296002</v>
+        <v>0.00001157407407</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H27" s="2">
-        <v>45427</v>
+        <v>45574</v>
       </c>
       <c r="I27" t="s">
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K27" t="s">
         <v>5</v>
@@ -1831,34 +1541,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>92</v>
       </c>
       <c r="D28" s="2">
-        <v>45409</v>
+        <v>45574</v>
       </c>
       <c r="E28" s="3">
-        <v>0.59510416666666999</v>
+        <v>0.67750000000000</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H28" s="2">
-        <v>45409</v>
+        <v>45574</v>
       </c>
       <c r="I28" t="s">
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s">
         <v>12</v>
@@ -1870,34 +1580,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>8</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="D29" s="2">
-        <v>45355</v>
+        <v>45575</v>
       </c>
       <c r="E29" s="3">
-        <v>0.99998842592592996</v>
+        <v>0.46239583333333</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H29" s="2">
-        <v>45363</v>
+        <v>45575</v>
       </c>
       <c r="I29" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="J29" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="K29" t="s">
         <v>12</v>
@@ -1909,51 +1619,46 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="D30" s="2">
-        <v>45117</v>
+        <v>45578</v>
       </c>
       <c r="E30" s="3">
-        <v>0.40043981481481</v>
+        <v>0.33292824074074</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>0 </v>
       </c>
       <c r="H30" s="2">
-        <v>45117</v>
+        <v>45578</v>
       </c>
       <c r="I30" t="s">
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>4</v>
+        <v>101</v>
       </c>
       <c r="K30" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="L30" t="s">
         <v>6</v>
       </c>
       <c r="M30" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M30" xr:uid="{A72AD2CB-AB13-4AA5-9150-41CACE5E3768}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:M30">
-      <sortCondition descending="1" ref="D1:D30"/>
-    </sortState>
-  </autoFilter>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
